--- a/src/Excel/THQN.xlsx
+++ b/src/Excel/THQN.xlsx
@@ -767,7 +767,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -803,8 +803,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -829,223 +833,247 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1063,6 +1091,8 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1080,6 +1110,8 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1411,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W30" sqref="W30:AH31"/>
+    <sheetView tabSelected="1" topLeftCell="L3" workbookViewId="0">
+      <selection activeCell="AF19" sqref="AF19:AH19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1468,26 +1500,26 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
@@ -1532,113 +1564,113 @@
       <c r="AH3" s="2"/>
     </row>
     <row r="4" spans="2:34" ht="19" customHeight="1">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="17" t="s">
+      <c r="D4" s="67"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="17" t="s">
+      <c r="G4" s="39"/>
+      <c r="H4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="17" t="s">
+      <c r="I4" s="39"/>
+      <c r="J4" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="59"/>
-      <c r="L4" s="17" t="s">
+      <c r="K4" s="39"/>
+      <c r="L4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="59"/>
-      <c r="N4" s="17" t="s">
+      <c r="M4" s="39"/>
+      <c r="N4" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="59"/>
-      <c r="P4" s="37" t="s">
+      <c r="O4" s="39"/>
+      <c r="P4" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="37" t="s">
+      <c r="Q4" s="39"/>
+      <c r="R4" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="59"/>
-      <c r="T4" s="37" t="s">
+      <c r="S4" s="39"/>
+      <c r="T4" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="59"/>
-      <c r="V4" s="37" t="s">
+      <c r="U4" s="39"/>
+      <c r="V4" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="W4" s="59"/>
-      <c r="X4" s="37" t="s">
+      <c r="W4" s="39"/>
+      <c r="X4" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="37" t="s">
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="84" t="s">
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="AC4" s="61"/>
-      <c r="AD4" s="61"/>
-      <c r="AE4" s="62"/>
-      <c r="AF4" s="17" t="s">
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="AG4" s="59"/>
-      <c r="AH4" s="40" t="s">
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="57" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="5" spans="2:34" ht="19" customHeight="1">
-      <c r="B5" s="85"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="64"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="64"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="64"/>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="64"/>
-      <c r="AA5" s="65"/>
-      <c r="AB5" s="23" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="AC5" s="62"/>
-      <c r="AD5" s="23" t="s">
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="AE5" s="62"/>
-      <c r="AF5" s="64"/>
-      <c r="AG5" s="65"/>
-      <c r="AH5" s="85"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="40"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="58"/>
     </row>
     <row r="6" spans="2:34" ht="73" customHeight="1">
-      <c r="B6" s="66"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="8" t="s">
         <v>51</v>
       </c>
@@ -1732,10 +1764,10 @@
       <c r="AG6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AH6" s="66"/>
+      <c r="AH6" s="43"/>
     </row>
     <row r="7" spans="2:34" ht="19" customHeight="1">
-      <c r="B7" s="77">
+      <c r="B7" s="17">
         <v>1</v>
       </c>
       <c r="C7" s="10"/>
@@ -1772,7 +1804,7 @@
       <c r="AH7" s="10"/>
     </row>
     <row r="8" spans="2:34" ht="19" customHeight="1">
-      <c r="B8" s="77">
+      <c r="B8" s="17">
         <v>2</v>
       </c>
       <c r="C8" s="10"/>
@@ -1809,7 +1841,7 @@
       <c r="AH8" s="10"/>
     </row>
     <row r="9" spans="2:34" ht="19" customHeight="1">
-      <c r="B9" s="77">
+      <c r="B9" s="17">
         <v>3</v>
       </c>
       <c r="C9" s="10"/>
@@ -1846,7 +1878,7 @@
       <c r="AH9" s="10"/>
     </row>
     <row r="10" spans="2:34" ht="19" customHeight="1">
-      <c r="B10" s="77">
+      <c r="B10" s="17">
         <v>4</v>
       </c>
       <c r="C10" s="10"/>
@@ -1883,7 +1915,7 @@
       <c r="AH10" s="10"/>
     </row>
     <row r="11" spans="2:34" ht="19" customHeight="1">
-      <c r="B11" s="77">
+      <c r="B11" s="17">
         <v>5</v>
       </c>
       <c r="C11" s="10"/>
@@ -1920,41 +1952,41 @@
       <c r="AH11" s="10"/>
     </row>
     <row r="12" spans="2:34" ht="19" customHeight="1">
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="44"/>
-      <c r="Z12" s="44"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="44"/>
-      <c r="AC12" s="44"/>
-      <c r="AD12" s="44"/>
-      <c r="AE12" s="44"/>
-      <c r="AF12" s="44"/>
-      <c r="AG12" s="44"/>
-      <c r="AH12" s="44"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
     </row>
     <row r="13" spans="2:34" ht="19" customHeight="1">
       <c r="B13" s="2"/>
@@ -1998,30 +2030,30 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="34"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="61"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
@@ -2064,369 +2096,369 @@
       <c r="AH15" s="2"/>
     </row>
     <row r="16" spans="2:34" ht="19" customHeight="1">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="39" t="s">
+      <c r="C16" s="62"/>
+      <c r="D16" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="39" t="s">
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="61"/>
-      <c r="U16" s="61"/>
-      <c r="V16" s="61"/>
-      <c r="W16" s="61"/>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="61"/>
-      <c r="Z16" s="61"/>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="61"/>
-      <c r="AE16" s="62"/>
-      <c r="AF16" s="21" t="s">
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="AG16" s="72"/>
-      <c r="AH16" s="59"/>
+      <c r="AG16" s="94"/>
+      <c r="AH16" s="95"/>
     </row>
     <row r="17" spans="2:34" ht="19" customHeight="1">
-      <c r="B17" s="68"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="31" t="s">
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="39" t="s">
+      <c r="E17" s="39"/>
+      <c r="F17" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="21" t="s">
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="30" t="s">
+      <c r="P17" s="39"/>
+      <c r="Q17" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="R17" s="31" t="s">
+      <c r="R17" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="S17" s="59"/>
-      <c r="T17" s="39" t="s">
+      <c r="S17" s="39"/>
+      <c r="T17" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="U17" s="61"/>
-      <c r="V17" s="61"/>
-      <c r="W17" s="61"/>
-      <c r="X17" s="61"/>
-      <c r="Y17" s="61"/>
-      <c r="Z17" s="61"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="62"/>
-      <c r="AF17" s="73"/>
-      <c r="AG17" s="75"/>
-      <c r="AH17" s="74"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="96"/>
+      <c r="AG17" s="97"/>
+      <c r="AH17" s="98"/>
     </row>
     <row r="18" spans="2:34" ht="52" customHeight="1">
-      <c r="B18" s="70"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="39" t="s">
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="62"/>
-      <c r="H18" s="29" t="s">
+      <c r="G18" s="34"/>
+      <c r="H18" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="I18" s="62"/>
-      <c r="J18" s="29" t="s">
+      <c r="I18" s="34"/>
+      <c r="J18" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="61"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="29" t="s">
+      <c r="K18" s="36"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="N18" s="62"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="29" t="s">
+      <c r="N18" s="34"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="U18" s="62"/>
-      <c r="V18" s="29" t="s">
+      <c r="U18" s="34"/>
+      <c r="V18" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="W18" s="61"/>
-      <c r="X18" s="62"/>
-      <c r="Y18" s="29" t="s">
+      <c r="W18" s="36"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="29" t="s">
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="AB18" s="62"/>
-      <c r="AC18" s="29" t="s">
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="62"/>
-      <c r="AF18" s="64"/>
-      <c r="AG18" s="76"/>
-      <c r="AH18" s="65"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="99"/>
+      <c r="AG18" s="100"/>
+      <c r="AH18" s="101"/>
     </row>
     <row r="19" spans="2:34" ht="19" customHeight="1">
-      <c r="B19" s="39">
+      <c r="B19" s="51">
         <v>1</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="16"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="32"/>
       <c r="Q19" s="6"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="22"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="22"/>
-      <c r="AH19" s="16"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="47"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="47"/>
+      <c r="AD19" s="48"/>
+      <c r="AE19" s="32"/>
+      <c r="AF19" s="106"/>
+      <c r="AG19" s="107"/>
+      <c r="AH19" s="108"/>
     </row>
     <row r="20" spans="2:34" ht="19" customHeight="1">
-      <c r="B20" s="39">
+      <c r="B20" s="51">
         <v>2</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="16"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="32"/>
       <c r="Q20" s="6"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="15"/>
-      <c r="AD20" s="22"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="15"/>
-      <c r="AG20" s="22"/>
-      <c r="AH20" s="16"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="48"/>
+      <c r="AE20" s="32"/>
+      <c r="AF20" s="44"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="24"/>
     </row>
     <row r="21" spans="2:34" ht="19" customHeight="1">
-      <c r="B21" s="39">
+      <c r="B21" s="51">
         <v>3</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="16"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="32"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="22"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="15"/>
-      <c r="AG21" s="22"/>
-      <c r="AH21" s="16"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="47"/>
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="44"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="24"/>
     </row>
     <row r="22" spans="2:34" ht="19" customHeight="1">
-      <c r="B22" s="39">
+      <c r="B22" s="51">
         <v>4</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="13"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="102"/>
       <c r="Q22" s="6"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="14"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="14"/>
-      <c r="AH22" s="13"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="102"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="102"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="103"/>
+      <c r="X22" s="102"/>
+      <c r="Y22" s="47"/>
+      <c r="Z22" s="102"/>
+      <c r="AA22" s="47"/>
+      <c r="AB22" s="102"/>
+      <c r="AC22" s="47"/>
+      <c r="AD22" s="103"/>
+      <c r="AE22" s="102"/>
+      <c r="AF22" s="44"/>
+      <c r="AG22" s="104"/>
+      <c r="AH22" s="105"/>
     </row>
     <row r="23" spans="2:34" ht="19" customHeight="1">
-      <c r="B23" s="39">
+      <c r="B23" s="51">
         <v>5</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="16"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="32"/>
       <c r="Q23" s="6"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="15"/>
-      <c r="AD23" s="22"/>
-      <c r="AE23" s="16"/>
-      <c r="AF23" s="15"/>
-      <c r="AG23" s="22"/>
-      <c r="AH23" s="16"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="47"/>
+      <c r="AB23" s="32"/>
+      <c r="AC23" s="47"/>
+      <c r="AD23" s="48"/>
+      <c r="AE23" s="32"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="24"/>
     </row>
     <row r="24" spans="2:34" ht="19" customHeight="1">
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="81"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="46"/>
-      <c r="W24" s="47"/>
-      <c r="X24" s="45"/>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="45"/>
-      <c r="AA24" s="46"/>
-      <c r="AB24" s="45"/>
-      <c r="AC24" s="46"/>
-      <c r="AD24" s="47"/>
-      <c r="AE24" s="45"/>
-      <c r="AF24" s="46"/>
-      <c r="AG24" s="47"/>
-      <c r="AH24" s="45"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="44"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="44"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="24"/>
+      <c r="AF24" s="44"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="24"/>
     </row>
     <row r="25" spans="2:34" ht="19" customHeight="1">
       <c r="B25" s="2"/>
@@ -2473,26 +2505,26 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="32" t="s">
+      <c r="K26" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="25"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="46"/>
+      <c r="Z26" s="46"/>
+      <c r="AA26" s="46"/>
+      <c r="AB26" s="46"/>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
@@ -2536,225 +2568,384 @@
       <c r="AH27" s="2"/>
     </row>
     <row r="28" spans="2:34" ht="19" customHeight="1">
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="39"/>
+      <c r="D28" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="60" t="s">
+      <c r="E28" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="62"/>
-      <c r="S28" s="63" t="s">
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="T28" s="61"/>
-      <c r="U28" s="61"/>
-      <c r="V28" s="62"/>
-      <c r="W28" s="60" t="s">
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="X28" s="61"/>
-      <c r="Y28" s="61"/>
-      <c r="Z28" s="61"/>
-      <c r="AA28" s="61"/>
-      <c r="AB28" s="61"/>
-      <c r="AC28" s="61"/>
-      <c r="AD28" s="61"/>
-      <c r="AE28" s="61"/>
-      <c r="AF28" s="61"/>
-      <c r="AG28" s="61"/>
-      <c r="AH28" s="62"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="36"/>
+      <c r="AG28" s="36"/>
+      <c r="AH28" s="34"/>
     </row>
     <row r="29" spans="2:34" ht="19" customHeight="1">
-      <c r="B29" s="64"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="60" t="s">
+      <c r="B29" s="40"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="62"/>
-      <c r="G29" s="60" t="s">
+      <c r="F29" s="34"/>
+      <c r="G29" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="H29" s="62"/>
-      <c r="I29" s="60" t="s">
+      <c r="H29" s="34"/>
+      <c r="I29" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="J29" s="62"/>
-      <c r="K29" s="60" t="s">
+      <c r="J29" s="34"/>
+      <c r="K29" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="L29" s="62"/>
-      <c r="M29" s="60" t="s">
+      <c r="L29" s="34"/>
+      <c r="M29" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="N29" s="62"/>
-      <c r="O29" s="60" t="s">
+      <c r="N29" s="34"/>
+      <c r="O29" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="60" t="s">
+      <c r="P29" s="34"/>
+      <c r="Q29" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="R29" s="62"/>
-      <c r="S29" s="63" t="s">
+      <c r="R29" s="34"/>
+      <c r="S29" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="T29" s="62"/>
-      <c r="U29" s="63" t="s">
+      <c r="T29" s="34"/>
+      <c r="U29" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="V29" s="62"/>
-      <c r="W29" s="60" t="s">
+      <c r="V29" s="34"/>
+      <c r="W29" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="X29" s="62"/>
-      <c r="Y29" s="60" t="s">
+      <c r="X29" s="34"/>
+      <c r="Y29" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="Z29" s="61"/>
-      <c r="AA29" s="62"/>
-      <c r="AB29" s="60" t="s">
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="AC29" s="61"/>
-      <c r="AD29" s="61"/>
-      <c r="AE29" s="62"/>
-      <c r="AF29" s="60" t="s">
+      <c r="AC29" s="36"/>
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="34"/>
+      <c r="AF29" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="AG29" s="61"/>
-      <c r="AH29" s="62"/>
+      <c r="AG29" s="36"/>
+      <c r="AH29" s="34"/>
     </row>
     <row r="30" spans="2:34" ht="19" customHeight="1">
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="62"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="10"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="96"/>
-      <c r="X30" s="97"/>
-      <c r="Y30" s="96"/>
-      <c r="Z30" s="98"/>
-      <c r="AA30" s="97"/>
-      <c r="AB30" s="96"/>
-      <c r="AC30" s="98"/>
-      <c r="AD30" s="98"/>
-      <c r="AE30" s="97"/>
-      <c r="AF30" s="96"/>
-      <c r="AG30" s="98"/>
-      <c r="AH30" s="97"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="28"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="27"/>
+      <c r="AE30" s="28"/>
+      <c r="AF30" s="26"/>
+      <c r="AG30" s="27"/>
+      <c r="AH30" s="28"/>
     </row>
     <row r="31" spans="2:34" ht="19" customHeight="1">
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="62"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="10"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="96"/>
-      <c r="X31" s="97"/>
-      <c r="Y31" s="96"/>
-      <c r="Z31" s="98"/>
-      <c r="AA31" s="97"/>
-      <c r="AB31" s="96"/>
-      <c r="AC31" s="98"/>
-      <c r="AD31" s="98"/>
-      <c r="AE31" s="97"/>
-      <c r="AF31" s="96"/>
-      <c r="AG31" s="98"/>
-      <c r="AH31" s="97"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="28"/>
+      <c r="AF31" s="26"/>
+      <c r="AG31" s="27"/>
+      <c r="AH31" s="28"/>
     </row>
     <row r="32" spans="2:34" ht="19" customHeight="1">
-      <c r="B32" s="80" t="s">
+      <c r="B32" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="82"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="50"/>
-      <c r="V32" s="45"/>
-      <c r="W32" s="50"/>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="50"/>
-      <c r="Z32" s="47"/>
-      <c r="AA32" s="45"/>
-      <c r="AB32" s="50"/>
-      <c r="AC32" s="47"/>
-      <c r="AD32" s="47"/>
-      <c r="AE32" s="45"/>
-      <c r="AF32" s="50"/>
-      <c r="AG32" s="47"/>
-      <c r="AH32" s="45"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="24"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="24"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="24"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="25"/>
+      <c r="AD32" s="25"/>
+      <c r="AE32" s="24"/>
+      <c r="AF32" s="23"/>
+      <c r="AG32" s="25"/>
+      <c r="AH32" s="24"/>
     </row>
     <row r="33" ht="19" customHeight="1"/>
   </sheetData>
-  <mergeCells count="171">
+  <mergeCells count="183">
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="AF22:AH22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="J2:AA2"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="P4:Q5"/>
+    <mergeCell ref="R4:S5"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="H14:AC14"/>
+    <mergeCell ref="B16:C18"/>
+    <mergeCell ref="D16:N16"/>
+    <mergeCell ref="O16:AE16"/>
+    <mergeCell ref="AF16:AH18"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="T4:U5"/>
+    <mergeCell ref="V4:W5"/>
+    <mergeCell ref="X4:Y5"/>
+    <mergeCell ref="Z4:AA5"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AG5"/>
+    <mergeCell ref="F17:N17"/>
+    <mergeCell ref="O17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R17:S18"/>
+    <mergeCell ref="T17:AE17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="AF20:AH20"/>
+    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="AF23:AH23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="AF24:AH24"/>
+    <mergeCell ref="K26:AB26"/>
+    <mergeCell ref="AF30:AH30"/>
+    <mergeCell ref="AB29:AE29"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:R28"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="W28:AH28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="AB30:AE30"/>
     <mergeCell ref="S32:T32"/>
     <mergeCell ref="U32:V32"/>
     <mergeCell ref="W32:X32"/>
@@ -2779,153 +2970,6 @@
     <mergeCell ref="Y31:AA31"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="AB30:AE30"/>
-    <mergeCell ref="AF30:AH30"/>
-    <mergeCell ref="AB29:AE29"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:R28"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="W28:AH28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="AF24:AH24"/>
-    <mergeCell ref="K26:AB26"/>
-    <mergeCell ref="AF23:AH23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="AF20:AH20"/>
-    <mergeCell ref="AC19:AE19"/>
-    <mergeCell ref="AF19:AH19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AE18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="F17:N17"/>
-    <mergeCell ref="O17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="R17:S18"/>
-    <mergeCell ref="T17:AE17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="H14:AC14"/>
-    <mergeCell ref="B16:C18"/>
-    <mergeCell ref="D16:N16"/>
-    <mergeCell ref="O16:AE16"/>
-    <mergeCell ref="AF16:AH18"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="T4:U5"/>
-    <mergeCell ref="V4:W5"/>
-    <mergeCell ref="X4:Y5"/>
-    <mergeCell ref="Z4:AA5"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AG5"/>
-    <mergeCell ref="J2:AA2"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:E5"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="H4:I5"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="P4:Q5"/>
-    <mergeCell ref="R4:S5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2974,23 +3018,23 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
     </row>
     <row r="3" spans="2:20" ht="18" customHeight="1">
       <c r="B3" s="1"/>
@@ -3011,58 +3055,58 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="2:20" ht="18" customHeight="1">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="27" t="s">
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="M4" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="N4" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="87"/>
-      <c r="P4" s="29" t="s">
+      <c r="O4" s="74"/>
+      <c r="P4" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="27" t="s">
+      <c r="Q4" s="74"/>
+      <c r="R4" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="27" t="s">
+      <c r="S4" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="27" t="s">
+      <c r="T4" s="42" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="39" customHeight="1">
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
       <c r="G5" s="7" t="s">
         <v>38</v>
       </c>
@@ -3078,8 +3122,8 @@
       <c r="K5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
       <c r="N5" s="7" t="s">
         <v>43</v>
       </c>
@@ -3092,12 +3136,12 @@
       <c r="Q5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="88"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
     </row>
     <row r="6" spans="2:20" ht="18" customHeight="1">
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="19" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="5"/>
@@ -3120,7 +3164,7 @@
       <c r="T6" s="5"/>
     </row>
     <row r="7" spans="2:20" ht="18" customHeight="1">
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="19" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="5"/>
@@ -3143,7 +3187,7 @@
       <c r="T7" s="5"/>
     </row>
     <row r="8" spans="2:20" ht="18" customHeight="1">
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="19" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="5"/>
@@ -3166,7 +3210,7 @@
       <c r="T8" s="5"/>
     </row>
     <row r="9" spans="2:20" ht="18" customHeight="1">
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="6"/>
@@ -3189,7 +3233,7 @@
       <c r="T9" s="6"/>
     </row>
     <row r="10" spans="2:20" ht="18" customHeight="1">
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="6"/>
@@ -3212,36 +3256,31 @@
       <c r="T10" s="6"/>
     </row>
     <row r="11" spans="2:20" ht="18" customHeight="1">
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
     </row>
     <row r="12" spans="2:20" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
     <mergeCell ref="F2:N2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -3251,6 +3290,11 @@
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -3281,86 +3325,92 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18.75" customHeight="1"/>
     <row r="2" spans="2:9" ht="18.75" customHeight="1">
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3" spans="2:9" ht="18.75" customHeight="1"/>
     <row r="4" spans="2:9" ht="24" customHeight="1">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="21" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="41" t="s">
+      <c r="E4" s="84"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="16"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="2:9" ht="22" customHeight="1">
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="15" t="s">
+      <c r="B5" s="82"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="16"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="32"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="32"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="32"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="2:9" ht="18.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B4:C5"/>
@@ -3369,12 +3419,6 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -3402,41 +3446,41 @@
   <sheetData>
     <row r="1" spans="2:14" ht="18.75" customHeight="1"/>
     <row r="2" spans="2:14" ht="18.75" customHeight="1">
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="54"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="2:14" ht="18.75" customHeight="1"/>
     <row r="4" spans="2:14" ht="39" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="29" t="s">
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="87"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="74"/>
       <c r="N4" s="7" t="s">
         <v>37</v>
       </c>
@@ -3445,85 +3489,85 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="58"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="88"/>
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="2:14" ht="18.75" customHeight="1">
       <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="58"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="88"/>
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="2:14" ht="18.75" customHeight="1">
       <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="58"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="88"/>
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="2:14" ht="18.75" customHeight="1">
       <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="58"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="88"/>
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="2:14" ht="18.75" customHeight="1">
       <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="58"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="88"/>
       <c r="N9" s="3"/>
     </row>
     <row r="10" spans="2:14" ht="18.75" customHeight="1"/>
@@ -3579,17 +3623,17 @@
     </row>
     <row r="2" spans="2:14" ht="18" customHeight="1">
       <c r="C2" s="1"/>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
@@ -3601,56 +3645,56 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="2:14" ht="20" customHeight="1">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="30" t="s">
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="55" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="21" customHeight="1">
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="39" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="39" t="s">
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="85"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="58"/>
     </row>
     <row r="6" spans="2:14" ht="27" customHeight="1">
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="5" t="s">
         <v>95</v>
       </c>
@@ -3675,7 +3719,7 @@
       <c r="M6" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="N6" s="66"/>
+      <c r="N6" s="43"/>
     </row>
     <row r="7" spans="2:14" ht="18" customHeight="1">
       <c r="B7" s="3">
@@ -3716,23 +3760,23 @@
       <c r="N8" s="11"/>
     </row>
     <row r="9" spans="2:14" ht="18" customHeight="1">
-      <c r="B9" s="94">
+      <c r="B9" s="21">
         <v>3</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
     </row>
     <row r="10" spans="2:14" ht="18" customHeight="1">
       <c r="C10" s="1"/>
